--- a/pred_ohlcv/54_21/2020-01-21 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WPX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>3191813.708</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1226322.2077</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5146116.782</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8060340.31663077</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6733910.85173077</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3812136.441230769</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4239915.622130769</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4897158.45793077</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4675438.95113077</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4757848.42923077</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2502157.45123077</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>13981556.05523077</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9466948.85143077</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6757655.93543077</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6757683.50723077</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6711092.65543077</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6711102.65543077</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6711086.65543077</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6714118.59553077</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6725088.035357521</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6724723.05155752</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6683275.401153253</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6682692.432798823</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6665425.546498823</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6666059.035956418</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6688594.313944393</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6691831.195744392</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6664147.607632367</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6663481.862232367</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6655160.712132366</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>6649275.098032368</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>6672492.848132368</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>6743895.644070167</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>6729058.152170167</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>6721143.249570168</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6741243.225470168</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6741316.352970168</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6710951.957970168</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>6711800.083424157</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6702882.369324156</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6707508.835126711</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6706439.646326711</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6666064.145726711</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6655015.531826711</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6628206.429226711</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6629681.410026711</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>6662348.174526712</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>6663051.576626712</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>6677534.465426711</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>7314098.883913566</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>7392189.243789065</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7479460.422751079</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7517449.965713566</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7559322.574713566</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7743504.346919781</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7967303.911013566</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>8018846.648685635</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7944305.962406276</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7941118.789298765</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7911003.529998765</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7911162.253198765</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7895276.423698765</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7917498.944898766</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7911089.282035824</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7851669.100035824</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7883226.088335824</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>7910368.61891004</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>7908649.06581004</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>7911217.00811004</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>7889693.93971004</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>7892763.931210039</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7924918.301527886</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>7983974.524810039</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>7957873.18531004</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>8021272.56651004</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>8081969.56651004</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>8149206.686512306</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8140352.155679821</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8157752.267579821</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>8153342.419691449</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8107590.208291449</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8089916.591491449</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8068412.514291449</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8072011.227091448</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>8082511.967391448</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8079833.507291448</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>8058550.629491448</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>8049459.203791449</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>8064798.388156086</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>8051282.628913859</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>8050686.443413859</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>8061293.193087632</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>8046487.098987631</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>8047211.625587632</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>8049657.551587632</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>8043568.243087632</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>8085887.495587632</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>8076726.618287632</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>8037080.548805214</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>8024999.854683815</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>8019068.511083814</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>8038895.561583814</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>8038888.627083814</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>8004645.849383813</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>8004718.647483814</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>7999291.758483813</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>8000839.646022161</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>7996084.950022161</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>7996094.950022161</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>8003516.489022161</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>8000681.879022161</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>8006308.540022161</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>8006396.907422161</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>8003531.882822161</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>8003404.247322161</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>7985828.560822161</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>7999644.425322161</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>8001829.040863083</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>8001304.279063082</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>7998119.930963082</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7998182.453163082</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>7997880.983763082</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>8120732.092146208</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>8120718.592146208</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>8121655.931346208</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>8113154.362646208</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>8150679.627246208</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>8174221.703046208</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>8178362.863046208</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>8165635.031946208</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>8176575.112766721</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>8171055.747466721</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>8162407.82386672</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>8073863.96916672</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>8083994.66926672</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>8064543.45516672</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>8064546.45516672</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>8043303.25286672</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>8041082.526166719</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>8045137.162666719</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>8044058.968266719</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>7986385.699266719</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>7989451.092966719</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>7989777.947166719</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>7963202.947166719</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>7996147.379952895</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>7994615.145752896</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>7994019.440752896</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>7994035.940752896</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>7977371.837352895</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>7977893.875652895</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>7967434.875252895</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>7949997.346252895</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>7950152.555252895</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>7944008.587752894</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>7974704.231252895</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>7985043.946552895</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>7985038.135977648</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7984479.139777648</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>8018133.524677648</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>8019004.726677648</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>7990058.904177648</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>7986651.608377648</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>7971132.854777647</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>7965663.817677647</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>7961949.691277646</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>7947260.234277646</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>7947539.285077646</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>7935884.542877646</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>7937782.783377646</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>7947001.632177646</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>7935801.554177647</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>7939251.564277646</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>7933064.966177646</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>7922884.048177646</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>7893655.972077646</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>7694225.885013595</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>7551087.532813596</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1690322.890349908</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>1929467.491232194</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 WPX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>3191813.708</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1226322.2077</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5146116.782</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8087064.6799</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8060340.31663077</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6733910.85173077</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3811832.929430769</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3812136.441230769</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3810803.598830769</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4239915.622130769</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4897158.45793077</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4675438.95113077</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4757848.42923077</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2502157.45123077</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>11255761.21133077</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>13981556.05523077</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9466948.85143077</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6757655.93543077</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6757683.50723077</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6753049.25083077</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6711092.65543077</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>6711102.65543077</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>6711086.65543077</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>6714118.59553077</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6725088.035357521</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6724723.05155752</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6683275.401153253</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6682692.432798823</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6679692.432798823</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6678297.060198823</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6665425.546498823</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6666059.035956418</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6688594.313944393</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6691831.195744392</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6671069.761444393</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6664147.607632367</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6663481.862232367</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6655160.712132366</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>6646975.098032368</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>6649275.098032368</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>6672492.848132368</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>6683771.648070168</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>6712649.635670167</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>6743895.644070167</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>6729058.152170167</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>6721143.249570168</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>6741243.225470168</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>6741316.352970168</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>6710951.957970168</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>6711800.083424157</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>6702882.369324156</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>6714229.130970169</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>6719866.852126712</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>6718888.832026712</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>6720075.799226712</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>6707508.835126711</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>6706439.646326711</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>6666064.145726711</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>6655015.531826711</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>6628206.429226711</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>6629681.410026711</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6629086.342126711</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6629269.733234888</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>6637786.755826712</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>6662348.174526712</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>6663051.576626712</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>6677534.465426711</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>7144219.215413566</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>7314098.883913566</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>7392189.243789065</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7479460.422751079</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7517449.965713566</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7559322.574713566</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7743504.346919781</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7967303.911013566</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>8018846.648685635</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7944305.962406276</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7941118.789298765</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7911003.529998765</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7911162.253198765</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7895276.423698765</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7917498.944898766</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7911089.282035824</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7851669.100035824</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7859795.547744572</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>7910368.61891004</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>7908649.06581004</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>7911217.00811004</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>7889693.93971004</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7895154.092210039</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>7892763.931210039</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7924918.301527886</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>7966733.00701004</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>7986129.00361004</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>8081969.56651004</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>8149206.686512306</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>8135987.354879821</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>8140352.155679821</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8157752.267579821</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>8153342.419691449</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8107590.208291449</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8089916.591491449</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8068412.514291449</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>8079833.507291448</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>8024999.854683815</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>8019068.511083814</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>8038888.627083814</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>8015498.618983814</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>8120718.592146208</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>8122209.271246208</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>8122542.447046208</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>8121655.931346208</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>8122766.103846208</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>8117772.995346208</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>8113154.362646208</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>8150679.627246208</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>8174221.703046208</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>8178362.863046208</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>8165653.093346208</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>8165635.031946208</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>8174679.908266721</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>8177089.848166721</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8175702.689266721</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>8168078.834466721</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>8162407.82386672</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>8073863.96916672</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>8083994.66926672</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>8064543.45516672</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>8064546.45516672</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>8043303.25286672</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>7972874.421052895</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>7985038.135977648</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7984479.139777648</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>8012062.011777648</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1690322.890349908</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1700469.733932967</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>1929467.491232194</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>1799491.749932194</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>1615997.363080842</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>1644674.392175437</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>1599842.533375437</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>1319556.101375437</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>1319556.101375437</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>1302789.220375437</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>1529381.226075437</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>1667797.221975437</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>1678071.968275437</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>1672987.278575437</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>1685692.974975437</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>1711858.11294256</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>1708441.99564256</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>1695757.58024256</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>1281645.90114256</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>1281645.90114256</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>1321079.04574256</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>1016663.01934256</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>424709.8403425597</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>494951.9573425597</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>487650.3593425597</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>487169.0742425597</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
